--- a/biology/Zoologie/Hiodon_alosoides/Hiodon_alosoides.xlsx
+++ b/biology/Zoologie/Hiodon_alosoides/Hiodon_alosoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laquaiche aux yeux d'or, La Queche
-Hiodon alosoides, communément appelé Laquaiche aux yeux d'or[3] ou La Queche[3], est une espèce de poissons d'eau douce de la famille des Hiodontidae endémique de l'Amérique du Nord.
+Hiodon alosoides, communément appelé Laquaiche aux yeux d'or ou La Queche, est une espèce de poissons d'eau douce de la famille des Hiodontidae endémique de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hiodon alosoides a été initialement décrite en 1819 par le naturaliste et archéologue franco-américain Constantine Samuel Rafinesque (1783-1840) sous le protonyme de Clupea alosoides[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hiodon alosoides a été initialement décrite en 1819 par le naturaliste et archéologue franco-américain Constantine Samuel Rafinesque (1783-1840) sous le protonyme de Clupea alosoides.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hiodon alosoides se rencontre en Ontario, dans la région des Grands Lacs, dans les bassins de l'Ohio et   du Mississippi et également depuis l'Alberta jusqu'au Montana et au Wyoming et en Oklahoma[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiodon alosoides se rencontre en Ontario, dans la région des Grands Lacs, dans les bassins de l'Ohio et   du Mississippi et également depuis l'Alberta jusqu'au Montana et au Wyoming et en Oklahoma.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hiodon alosoides peut mesurer jusqu'à 52 cm mais sa taille habituelle est d'environ 31 cm[3]. Son poids record est de 1,7 kg et son âge maximal de 14 ans[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiodon alosoides peut mesurer jusqu'à 52 cm mais sa taille habituelle est d'environ 31 cm. Son poids record est de 1,7 kg et son âge maximal de 14 ans.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, alosoides, lui a été donnée en référence à sa forme rappelant celles des Aloses[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, alosoides, lui a été donnée en référence à sa forme rappelant celles des Aloses.
 </t>
         </is>
       </c>
